--- a/appendices/TextureStatsSummary.xlsx
+++ b/appendices/TextureStatsSummary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\computer-vision\ACW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\computer-vision\appendices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A3E378-842F-4B3D-B7A2-4AE41C016406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F18FA3-504A-4097-A891-DFDDE37C43CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11640" yWindow="6780" windowWidth="20790" windowHeight="11835" xr2:uid="{BA8BB236-1779-4C26-9A9A-F03C654DE654}"/>
+    <workbookView xWindow="960" yWindow="-120" windowWidth="27960" windowHeight="16440" xr2:uid="{BA8BB236-1779-4C26-9A9A-F03C654DE654}"/>
   </bookViews>
   <sheets>
     <sheet name="Compared" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="33">
   <si>
     <t>filepath</t>
   </si>
@@ -124,9 +124,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -136,7 +133,7 @@
     <t>Correct and partial regions in advanced images only</t>
   </si>
   <si>
-    <t>If less than this, not a starfish.</t>
+    <t>SET</t>
   </si>
 </sst>
 </file>
@@ -196,18 +193,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -222,18 +213,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -252,23 +234,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,510 +572,557 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625A66B9-6A59-4D5C-9B0E-A13454B3FBC1}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="6"/>
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="13">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="2">
         <v>220.31252325247533</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2">
         <v>36.577593059801991</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="2">
         <v>2.0793641405940592E-2</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="2">
         <v>-1.3472470102079208</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="2">
         <v>2.5735327217821787E-2</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="2">
         <v>6.3199488411089124</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="2">
         <v>9.6062635920609356</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="2">
         <v>6.8443774692064547</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="2">
         <v>7.1231097413445126E-3</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="2">
         <v>0.64343294372730697</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="2">
         <v>1.0486921388075473E-2</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="2">
         <v>0.4100583486754098</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="8">
         <v>199.4109402</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <v>19.55017556</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="8">
         <v>5.8435359999999999E-3</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="2">
         <v>-3.0882085340000001</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="2">
         <v>9.3671710000000005E-3</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="2">
         <v>5.3668957439999998</v>
       </c>
-      <c r="J6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="J6" s="11"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="2">
         <v>238.67970650000001</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="2">
         <v>51.95383734</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="2">
         <v>3.9855784999999998E-2</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="2">
         <v>-0.309577353</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="2">
         <v>6.1823615999999998E-2</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="2">
         <v>7.0313963570000002</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="14">
+        <v>149</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="7">
+        <v>204.88755248166672</v>
+      </c>
+      <c r="D11" s="7">
+        <v>40.441674293236083</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2.6651996226697498E-2</v>
+      </c>
+      <c r="F11" s="7">
+        <v>-1.0234504208746049</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2.9218358144518813E-2</v>
+      </c>
+      <c r="H11" s="7">
+        <v>6.4077720734649208</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="7">
+        <v>41.934595163706291</v>
+      </c>
+      <c r="D12" s="7">
+        <v>13.076179665715101</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1.8410123033131477E-2</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2.0673210986120827</v>
+      </c>
+      <c r="G12" s="7">
+        <v>3.3911885807401038E-2</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.62422013588204472</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="12">
+        <v>40.9332785119731</v>
+      </c>
+      <c r="D13" s="7">
+        <v>19.55017556</v>
+      </c>
+      <c r="E13" s="7">
+        <v>5.8435359999999999E-3</v>
+      </c>
+      <c r="F13" s="7">
+        <v>-4.5844188330897904</v>
+      </c>
+      <c r="G13" s="7">
+        <v>4.3961469518238898E-3</v>
+      </c>
+      <c r="H13" s="7">
+        <v>4.8432405564219696</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="7">
+        <v>238.67970650000001</v>
+      </c>
+      <c r="D14" s="7">
+        <v>96.679697068313601</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.12567859371290599</v>
+      </c>
+      <c r="F14" s="7">
+        <v>12.0185867971747</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.24332718138746501</v>
+      </c>
+      <c r="H14" s="7">
+        <v>7.9084718864582504</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2">
+        <v>123.24889323536139</v>
+      </c>
+      <c r="D18" s="2">
+        <v>62.646706023700702</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5.9699598041934955E-2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.66134639362558201</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2.3291403446620628E-2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>7.2700851071084065</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2">
+        <v>39.756470344202668</v>
+      </c>
+      <c r="D19" s="2">
+        <v>16.502054652914573</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.8526060702216017E-2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3.4370414297117722</v>
+      </c>
+      <c r="G19" s="2">
+        <v>5.23577621742407E-2</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.68524584382341236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2">
+        <v>41.150733822412697</v>
+      </c>
+      <c r="D20" s="2">
+        <v>27.768741194108198</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1.1719584481345399E-2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>-4.6580815516373404</v>
+      </c>
+      <c r="G20" s="2">
+        <v>4.3455574909203702E-3</v>
+      </c>
+      <c r="H20" s="2">
+        <v>4.8653428127078202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="2">
+        <v>220.64369114877601</v>
+      </c>
+      <c r="D21" s="2">
+        <v>104.448238910246</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.14366913597597999</v>
+      </c>
+      <c r="F21" s="2">
+        <v>10.218663214573599</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.240968465346384</v>
+      </c>
+      <c r="H21" s="2">
+        <v>7.9175581471607304</v>
+      </c>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C24" s="15">
         <v>61</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C25" s="5">
         <v>168.16508614409835</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D25" s="5">
         <v>46.841494766311477</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E25" s="5">
         <v>3.6333422114754099E-2</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F25" s="5">
         <v>-0.66848496393442591</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G25" s="5">
         <v>1.4834772983606555E-2</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H25" s="5">
         <v>6.9887774828688531</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C26" s="5">
         <v>49.345003293072111</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D26" s="5">
         <v>17.734236503436822</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E26" s="5">
         <v>2.6323324107703418E-2</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F26" s="5">
         <v>1.4044556696001986</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G26" s="5">
         <v>1.5566825766152164E-2</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H26" s="5">
         <v>0.66532976989741588</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C27" s="9">
         <v>32.124422969999998</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D27" s="5">
         <v>9.7955170949999992</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E27" s="5">
         <v>1.4734450000000001E-3</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F27" s="5">
         <v>-3.9014030850000001</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G27" s="5">
         <v>4.2684899999999998E-3</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H27" s="5">
         <v>5.0802558209999997</v>
       </c>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C28" s="5">
         <v>238.58333329999999</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D28" s="5">
         <v>98.529045269999997</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E28" s="5">
         <v>0.129902136</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F28" s="5">
         <v>4.0084447929999998</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G28" s="5">
         <v>0.111302331</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H28" s="5">
         <v>7.9369336690000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C15" s="4"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="4">
-        <v>149</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="10">
-        <v>204.88755248166672</v>
-      </c>
-      <c r="D18" s="10">
-        <v>40.441674293236083</v>
-      </c>
-      <c r="E18" s="10">
-        <v>2.6651996226697498E-2</v>
-      </c>
-      <c r="F18" s="10">
-        <v>-1.0234504208746049</v>
-      </c>
-      <c r="G18" s="10">
-        <v>2.9218358144518813E-2</v>
-      </c>
-      <c r="H18" s="10">
-        <v>6.4077720734649208</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="10">
-        <v>41.934595163706291</v>
-      </c>
-      <c r="D19" s="10">
-        <v>13.076179665715101</v>
-      </c>
-      <c r="E19" s="10">
-        <v>1.8410123033131477E-2</v>
-      </c>
-      <c r="F19" s="10">
-        <v>2.0673210986120827</v>
-      </c>
-      <c r="G19" s="10">
-        <v>3.3911885807401038E-2</v>
-      </c>
-      <c r="H19" s="10">
-        <v>0.62422013588204472</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="15">
-        <v>40.9332785119731</v>
-      </c>
-      <c r="D20" s="10">
-        <v>19.55017556</v>
-      </c>
-      <c r="E20" s="10">
-        <v>5.8435359999999999E-3</v>
-      </c>
-      <c r="F20" s="10">
-        <v>-4.5844188330897904</v>
-      </c>
-      <c r="G20" s="10">
-        <v>4.3961469518238898E-3</v>
-      </c>
-      <c r="H20" s="10">
-        <v>4.8432405564219696</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="10">
-        <v>238.67970650000001</v>
-      </c>
-      <c r="D21" s="10">
-        <v>96.679697068313601</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0.12567859371290599</v>
-      </c>
-      <c r="F21" s="10">
-        <v>12.0185867971747</v>
-      </c>
-      <c r="G21" s="10">
-        <v>0.24332718138746501</v>
-      </c>
-      <c r="H21" s="10">
-        <v>7.9084718864582504</v>
-      </c>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="5">
-        <v>123.24889323536139</v>
-      </c>
-      <c r="D25" s="5">
-        <v>62.646706023700702</v>
-      </c>
-      <c r="E25" s="5">
-        <v>5.9699598041934955E-2</v>
-      </c>
-      <c r="F25" s="5">
-        <v>0.66134639362558201</v>
-      </c>
-      <c r="G25" s="5">
-        <v>2.3291403446620628E-2</v>
-      </c>
-      <c r="H25" s="5">
-        <v>7.2700851071084065</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="5">
-        <v>39.756470344202668</v>
-      </c>
-      <c r="D26" s="5">
-        <v>16.502054652914573</v>
-      </c>
-      <c r="E26" s="5">
-        <v>2.8526060702216017E-2</v>
-      </c>
-      <c r="F26" s="5">
-        <v>3.4370414297117722</v>
-      </c>
-      <c r="G26" s="5">
-        <v>5.23577621742407E-2</v>
-      </c>
-      <c r="H26" s="5">
-        <v>0.68524584382341236</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="5">
-        <v>41.150733822412697</v>
-      </c>
-      <c r="D27" s="5">
-        <v>27.768741194108198</v>
-      </c>
-      <c r="E27" s="5">
-        <v>1.1719584481345399E-2</v>
-      </c>
-      <c r="F27" s="5">
-        <v>-4.6580815516373404</v>
-      </c>
-      <c r="G27" s="5">
-        <v>4.3455574909203702E-3</v>
-      </c>
-      <c r="H27" s="5">
-        <v>4.8653428127078202</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="5">
-        <v>220.64369114877601</v>
-      </c>
-      <c r="D28" s="5">
-        <v>104.448238910246</v>
-      </c>
-      <c r="E28" s="5">
-        <v>0.14366913597597999</v>
-      </c>
-      <c r="F28" s="5">
-        <v>10.218663214573599</v>
-      </c>
-      <c r="G28" s="5">
-        <v>0.240968465346384</v>
-      </c>
-      <c r="H28" s="5">
-        <v>7.9175581471607304</v>
       </c>
     </row>
   </sheetData>
